--- a/biology/Zoologie/Distichodontidae/Distichodontidae.xlsx
+++ b/biology/Zoologie/Distichodontidae/Distichodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distichodontidae forment une famille de poissons d'eau douce appartenant à l'ordre des Characiformes. Les Distichodontidae sont une famille de poissons d’eau douce africains[1]. Deux qualités évolutives se rencontre dans cette famille, d’une part les micro-prédateurs ou prédateurs de très petits organismes et d’autre part les herbivores, qui ont une mâchoire supérieure non-protractile et une longueur de corps moins prononcé, alors que les carnivores ont une mâchoire supérieure mobile et un corps allongé typique[1]. La taille des espèces varie considérablement, les micro-prédateurs mesurent moins de 8 cm de longueur, et les plus grands carnivores peuvent atteindre jusqu'à 83 cm[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Distichodontidae forment une famille de poissons d'eau douce appartenant à l'ordre des Characiformes. Les Distichodontidae sont une famille de poissons d’eau douce africains. Deux qualités évolutives se rencontre dans cette famille, d’une part les micro-prédateurs ou prédateurs de très petits organismes et d’autre part les herbivores, qui ont une mâchoire supérieure non-protractile et une longueur de corps moins prononcé, alors que les carnivores ont une mâchoire supérieure mobile et un corps allongé typique. La taille des espèces varie considérablement, les micro-prédateurs mesurent moins de 8 cm de longueur, et les plus grands carnivores peuvent atteindre jusqu'à 83 cm.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                            (05 juin 2015)[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                            (05 juin 2015):
 genre Belonophago Giltay, 1929
 genre Congocharax Matthes, 1964
 genre Distichodus Müller &amp; Troschel, 1844
@@ -530,9 +544,43 @@
 genre Paradistichodus Pellegrin, 1922
 genre Paraphago Boulenger, 1899
 genre Phago Günther, 1865
-genre Xenocharax Günther, 1867
-Note
-Hemigrammocharax Pellegrin, 1923 - aujourd'hui (05/06/2015) fondu dans Nannocharax Günther, 1867</t>
+genre Xenocharax Günther, 1867</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Distichodontidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Distichodontidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hemigrammocharax Pellegrin, 1923 - aujourd'hui (05/06/2015) fondu dans Nannocharax Günther, 1867</t>
         </is>
       </c>
     </row>
